--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E4B65F-5297-4F3C-962C-2BEF25D89F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA2B470-5B88-49B7-96E9-2D01380D0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="749">
   <si>
     <t>State</t>
   </si>
@@ -2628,12 +2628,18 @@
   <si>
     <t>Delhi</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2878,6 +2884,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3082,9 +3093,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3133,14 +3141,17 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3424,13 +3435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P299"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3454,7 +3465,7 @@
     <col min="17" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="65.25" customHeight="1">
+    <row r="1" spans="1:18" ht="65.25" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3503,8 +3514,14 @@
       <c r="P1" s="24" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="55.8">
+      <c r="Q1" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="R1" s="62" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="55.8">
       <c r="A2" s="25" t="s">
         <v>704</v>
       </c>
@@ -3523,8 +3540,14 @@
       <c r="F2" s="25" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="55.8">
+      <c r="Q2">
+        <v>13.858370000000001</v>
+      </c>
+      <c r="R2">
+        <v>79.861980199999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="55.8">
       <c r="A3" s="25" t="s">
         <v>704</v>
       </c>
@@ -3537,8 +3560,14 @@
       <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="55.8">
+      <c r="Q3">
+        <v>14.6760635</v>
+      </c>
+      <c r="R3">
+        <v>76.912446500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="55.8">
       <c r="A4" s="25" t="s">
         <v>704</v>
       </c>
@@ -3554,8 +3583,14 @@
       <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="55.8">
+      <c r="Q4">
+        <v>17.4144316</v>
+      </c>
+      <c r="R4">
+        <v>78.431430699999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="55.8">
       <c r="A5" s="25" t="s">
         <v>704</v>
       </c>
@@ -3568,8 +3603,14 @@
       <c r="F5" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="55.8">
+      <c r="Q5">
+        <v>15.0096592</v>
+      </c>
+      <c r="R5">
+        <v>76.837994199999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="55.8">
       <c r="A6" s="25" t="s">
         <v>704</v>
       </c>
@@ -3585,8 +3626,14 @@
       <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="100.8">
+      <c r="Q6">
+        <v>15.016662500000001</v>
+      </c>
+      <c r="R6">
+        <v>76.893140599999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="100.8">
       <c r="A7" s="25" t="s">
         <v>704</v>
       </c>
@@ -3605,8 +3652,14 @@
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="83.4">
+      <c r="Q7">
+        <v>16.828699100000001</v>
+      </c>
+      <c r="R7">
+        <v>80.15402259999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="83.4">
       <c r="A8" s="25" t="s">
         <v>704</v>
       </c>
@@ -3622,8 +3675,14 @@
       <c r="F8" s="25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="55.8">
+      <c r="Q8">
+        <v>13.745159900000001</v>
+      </c>
+      <c r="R8">
+        <v>79.666348999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="55.8">
       <c r="A9" s="25" t="s">
         <v>704</v>
       </c>
@@ -3642,8 +3701,14 @@
       <c r="F9" s="25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="57.6">
+      <c r="Q9">
+        <v>17.626837500000001</v>
+      </c>
+      <c r="R9">
+        <v>83.202171899999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="57.6">
       <c r="A10" s="25" t="s">
         <v>704</v>
       </c>
@@ -3671,8 +3736,14 @@
       <c r="O10" s="25" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="97.2">
+      <c r="Q10">
+        <v>18.023429199999999</v>
+      </c>
+      <c r="R10">
+        <v>83.155579899999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="97.2">
       <c r="A11" s="25" t="s">
         <v>704</v>
       </c>
@@ -3685,8 +3756,14 @@
       <c r="F11" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="97.2">
+      <c r="Q11">
+        <v>15.915902000000001</v>
+      </c>
+      <c r="R11">
+        <v>77.3692566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="97.2">
       <c r="A12" s="25" t="s">
         <v>704</v>
       </c>
@@ -3705,8 +3782,14 @@
       <c r="F12" s="25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="72">
+      <c r="Q12">
+        <v>15.0056625</v>
+      </c>
+      <c r="R12">
+        <v>76.9976719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="72">
       <c r="A13" s="25" t="s">
         <v>704</v>
       </c>
@@ -3722,8 +3805,14 @@
       <c r="F13" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="50.4">
+      <c r="Q13">
+        <v>15.015712499999999</v>
+      </c>
+      <c r="R13">
+        <v>76.89757809999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="50.4">
       <c r="A14" s="25" t="s">
         <v>704</v>
       </c>
@@ -3742,32 +3831,56 @@
       <c r="N14" s="31" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>18.019689499999998</v>
+      </c>
+      <c r="R14">
+        <v>83.153395799999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>14.4750364</v>
+      </c>
+      <c r="R15">
+        <v>78.837799799999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>26.200604299999998</v>
+      </c>
+      <c r="R16">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="57.6">
+      <c r="Q17">
+        <v>26.200604299999998</v>
+      </c>
+      <c r="R17">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="57.6">
       <c r="A18" s="25" t="s">
         <v>153</v>
       </c>
@@ -3777,14 +3890,20 @@
       <c r="C18" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>310</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="124.8">
+      <c r="Q18">
+        <v>26.200604299999998</v>
+      </c>
+      <c r="R18">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="124.8">
       <c r="A19" s="25" t="s">
         <v>153</v>
       </c>
@@ -3803,18 +3922,24 @@
       <c r="F19" s="25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="90.6">
+      <c r="Q19">
+        <v>25.613888899999999</v>
+      </c>
+      <c r="R19">
+        <v>85.1441667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="90.6">
       <c r="A20" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="60" t="s">
         <v>318</v>
       </c>
       <c r="E20" s="25">
@@ -3823,8 +3948,14 @@
       <c r="F20" s="25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="72">
+      <c r="Q20">
+        <v>25.6156744</v>
+      </c>
+      <c r="R20">
+        <v>85.129306299999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="72">
       <c r="A21" s="25" t="s">
         <v>153</v>
       </c>
@@ -3834,15 +3965,21 @@
       <c r="C21" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="25">
         <v>33</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="55.8">
+      <c r="Q21">
+        <v>25.613857500000002</v>
+      </c>
+      <c r="R21">
+        <v>85.053703799999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="55.8">
       <c r="A22" s="25" t="s">
         <v>134</v>
       </c>
@@ -3858,8 +3995,14 @@
       <c r="F22" s="25" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="45.6">
+      <c r="Q22">
+        <v>25.596343900000001</v>
+      </c>
+      <c r="R22">
+        <v>85.168498700000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="45.6">
       <c r="A23" s="25" t="s">
         <v>134</v>
       </c>
@@ -3881,8 +4024,14 @@
       <c r="G23" s="25" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="69.599999999999994">
+      <c r="Q23">
+        <v>22.0796545</v>
+      </c>
+      <c r="R23">
+        <v>82.140915199999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="69.599999999999994">
       <c r="A24" s="25" t="s">
         <v>134</v>
       </c>
@@ -3901,15 +4050,21 @@
       <c r="F24" s="25" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="135.6">
+      <c r="Q24">
+        <v>21.381434299999999</v>
+      </c>
+      <c r="R24">
+        <v>81.647138299999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="135.6">
       <c r="A25" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="59" t="s">
         <v>372</v>
       </c>
       <c r="D25" s="30" t="s">
@@ -3921,9 +4076,15 @@
       <c r="F25" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:16" ht="43.2">
+      <c r="P25" s="32"/>
+      <c r="Q25">
+        <v>21.408258700000001</v>
+      </c>
+      <c r="R25">
+        <v>81.6719559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="43.2">
       <c r="A26" s="25" t="s">
         <v>134</v>
       </c>
@@ -3945,371 +4106,641 @@
       <c r="M26" s="25" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>21.232989199999999</v>
+      </c>
+      <c r="R26">
+        <v>81.65829939999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>21.3822571</v>
+      </c>
+      <c r="R27">
+        <v>81.623163199999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="28.8">
+      <c r="Q28">
+        <v>21.364266199999999</v>
+      </c>
+      <c r="R28">
+        <v>81.662152399999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="28.8">
       <c r="A29" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="F29" s="25" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>22.178033299999999</v>
+      </c>
+      <c r="R29">
+        <v>83.3442893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="F30" s="25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>21.228194899999998</v>
+      </c>
+      <c r="R30">
+        <v>81.386681199999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="32"/>
       <c r="F31" s="25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R31">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="F32" s="25" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="Q32">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R32">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="F33" s="25" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="Q33">
+        <v>21.240369699999999</v>
+      </c>
+      <c r="R33">
+        <v>81.624467799999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="14.25" customHeight="1">
       <c r="A34" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="32"/>
       <c r="F34" s="25" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="Q34">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R34">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="Q35">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R35">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="Q36">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R36">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="Q37">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R37">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="Q38">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R38">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="Q39">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R39">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="Q40">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R40">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="Q41">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R41">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="Q42">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R42">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="Q43">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R43">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="Q44">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R44">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="Q45">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R45">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="25" t="s">
         <v>746</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="Q46">
+        <v>21.278656699999999</v>
+      </c>
+      <c r="R46">
+        <v>81.866144199999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="Q47">
+        <v>28.613929800000001</v>
+      </c>
+      <c r="R47">
+        <v>77.208828199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="Q48">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R48">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="Q49">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R49">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="Q50">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R50">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="78" customHeight="1">
+      <c r="Q51">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R51">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="78" customHeight="1">
       <c r="A52" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="Q52">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R52">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="Q53">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R53">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="Q54">
+        <v>15.299326499999999</v>
+      </c>
+      <c r="R54">
+        <v>74.123995999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="Q55">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R55">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="Q56">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R56">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="Q57">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R57">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="Q58">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R58">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="Q59">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R59">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="43"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="32"/>
+      <c r="Q60">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R60">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="Q61">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R61">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="Q62">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R62">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="Q63">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R63">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="Q64">
+        <v>22.670831700000001</v>
+      </c>
+      <c r="R64">
+        <v>71.572395299999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="Q65">
+        <v>29.058775700000002</v>
+      </c>
+      <c r="R65">
+        <v>76.085600999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="Q66">
+        <v>29.058775700000002</v>
+      </c>
+      <c r="R66">
+        <v>76.085600999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="Q67">
+        <v>29.058775700000002</v>
+      </c>
+      <c r="R67">
+        <v>76.085600999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="Q68">
+        <v>29.058775700000002</v>
+      </c>
+      <c r="R68">
+        <v>76.085600999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="Q69">
+        <v>29.058775700000002</v>
+      </c>
+      <c r="R69">
+        <v>76.085600999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="25" t="s">
         <v>168</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="43.2">
+      <c r="Q70">
+        <v>29.058775700000002</v>
+      </c>
+      <c r="R70">
+        <v>76.085600999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="43.2">
       <c r="A71" s="25" t="s">
         <v>82</v>
       </c>
@@ -4328,161 +4759,275 @@
       <c r="F71" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="Q71">
+        <v>32.102407599999999</v>
+      </c>
+      <c r="R71">
+        <v>77.561941899999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="Q72">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R72">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="Q73">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R73">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="Q74">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R74">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="Q75">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R75">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="Q76">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R76">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="Q77">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R77">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="Q78">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R78">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="Q79">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R79">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R80">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R81">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R82">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R83">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R84">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R85">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R86">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R87">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="90.6">
+      <c r="Q88">
+        <v>23.691348600000001</v>
+      </c>
+      <c r="R88">
+        <v>85.272247199999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="90.6">
       <c r="A89" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C89" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="51" t="s">
         <v>431</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" ht="86.4">
+      <c r="Q89">
+        <v>22.913957100000001</v>
+      </c>
+      <c r="R89">
+        <v>86.065704699999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="86.4">
       <c r="A90" s="25" t="s">
         <v>16</v>
       </c>
@@ -4498,8 +5043,14 @@
       <c r="F90" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" ht="100.8">
+      <c r="Q90">
+        <v>15.152370599999999</v>
+      </c>
+      <c r="R90">
+        <v>76.891942799999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="100.8">
       <c r="A91" s="25" t="s">
         <v>16</v>
       </c>
@@ -4515,8 +5066,14 @@
       <c r="F91" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" ht="115.2">
+      <c r="Q91">
+        <v>15.139393200000001</v>
+      </c>
+      <c r="R91">
+        <v>76.921442799999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="115.2">
       <c r="A92" s="25" t="s">
         <v>16</v>
       </c>
@@ -4544,8 +5101,14 @@
       <c r="P92" s="25" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="100.8">
+      <c r="Q92">
+        <v>15.1501298</v>
+      </c>
+      <c r="R92">
+        <v>76.898157100000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="100.8">
       <c r="A93" s="25" t="s">
         <v>16</v>
       </c>
@@ -4564,8 +5127,14 @@
       <c r="F93" s="25" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" ht="100.8">
+      <c r="Q93">
+        <v>15.269927300000001</v>
+      </c>
+      <c r="R93">
+        <v>76.372879699999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="100.8">
       <c r="A94" s="25" t="s">
         <v>16</v>
       </c>
@@ -4584,18 +5153,24 @@
       <c r="F94" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="138.6">
+      <c r="Q94">
+        <v>12.963029199999999</v>
+      </c>
+      <c r="R94">
+        <v>77.584936299999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="138.6">
       <c r="A95" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="48" t="s">
         <v>718</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="51" t="s">
         <v>428</v>
       </c>
       <c r="E95" s="25">
@@ -4604,15 +5179,21 @@
       <c r="F95" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" ht="216">
+      <c r="Q95">
+        <v>15.1392224</v>
+      </c>
+      <c r="R95">
+        <v>76.896561399999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="216">
       <c r="A96" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="44" t="s">
         <v>439</v>
       </c>
       <c r="D96" s="25" t="s">
@@ -4630,32 +5211,44 @@
       <c r="M96" s="25" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="87">
+      <c r="Q96">
+        <v>15.127454</v>
+      </c>
+      <c r="R96">
+        <v>76.836093599999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="87">
       <c r="A97" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B97" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C97" s="45" t="s">
+      <c r="C97" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="D97" s="53" t="s">
+      <c r="D97" s="52" t="s">
         <v>441</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="75.599999999999994">
+      <c r="Q97">
+        <v>15.1666273</v>
+      </c>
+      <c r="R97">
+        <v>76.856406000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="75.599999999999994">
       <c r="A98" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="59" t="s">
+      <c r="C98" s="58" t="s">
         <v>717</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -4670,15 +5263,21 @@
       <c r="M98" s="25" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="115.2">
+      <c r="Q98">
+        <v>15.136585999999999</v>
+      </c>
+      <c r="R98">
+        <v>76.924151199999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="115.2">
       <c r="A99" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B99" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C99" s="45" t="s">
         <v>448</v>
       </c>
       <c r="D99" s="25" t="s">
@@ -4687,8 +5286,14 @@
       <c r="F99" s="25" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="86.4">
+      <c r="Q99">
+        <v>15.1540395</v>
+      </c>
+      <c r="R99">
+        <v>76.926765399999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="86.4">
       <c r="A100" s="25" t="s">
         <v>16</v>
       </c>
@@ -4707,8 +5312,14 @@
       <c r="F100" s="25" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="86.4">
+      <c r="Q100">
+        <v>15.1243283</v>
+      </c>
+      <c r="R100">
+        <v>76.94702199999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="86.4">
       <c r="A101" s="25" t="s">
         <v>16</v>
       </c>
@@ -4724,8 +5335,14 @@
       <c r="F101" s="25" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="72">
+      <c r="Q101">
+        <v>15.139393200000001</v>
+      </c>
+      <c r="R101">
+        <v>76.921442799999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="72">
       <c r="A102" s="25" t="s">
         <v>16</v>
       </c>
@@ -4735,7 +5352,7 @@
       <c r="C102" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="50" t="s">
         <v>462</v>
       </c>
       <c r="E102" s="25">
@@ -4753,8 +5370,14 @@
       <c r="N102" s="25" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="115.2">
+      <c r="Q102">
+        <v>15.084227500000001</v>
+      </c>
+      <c r="R102">
+        <v>76.885787899999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="115.2">
       <c r="A103" s="25" t="s">
         <v>16</v>
       </c>
@@ -4770,7 +5393,7 @@
       <c r="E103" s="25">
         <v>16</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="53" t="s">
         <v>469</v>
       </c>
       <c r="G103" s="25" t="s">
@@ -4779,8 +5402,14 @@
       <c r="M103" s="25" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="72">
+      <c r="Q103">
+        <v>12.9280955</v>
+      </c>
+      <c r="R103">
+        <v>77.582083699999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="72">
       <c r="A104" s="25" t="s">
         <v>16</v>
       </c>
@@ -4799,8 +5428,14 @@
       <c r="M104" s="25" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="129.6">
+      <c r="Q104">
+        <v>15.321737499999999</v>
+      </c>
+      <c r="R104">
+        <v>76.23532809999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="129.6">
       <c r="A105" s="25" t="s">
         <v>16</v>
       </c>
@@ -4819,8 +5454,14 @@
       <c r="M105" s="25" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="244.8">
+      <c r="Q105">
+        <v>15.161859400000001</v>
+      </c>
+      <c r="R105">
+        <v>76.898522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="244.8">
       <c r="A106" s="25" t="s">
         <v>16</v>
       </c>
@@ -4842,8 +5483,14 @@
       <c r="M106" s="25" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="43.2">
+      <c r="Q106">
+        <v>15.273767599999999</v>
+      </c>
+      <c r="R106">
+        <v>76.379410500000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="43.2">
       <c r="A107" s="25" t="s">
         <v>16</v>
       </c>
@@ -4859,15 +5506,21 @@
       <c r="M107" s="25" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="100.8">
+      <c r="Q107">
+        <v>15.1440214</v>
+      </c>
+      <c r="R107">
+        <v>76.894974899999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="100.8">
       <c r="A108" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B108" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="48" t="s">
         <v>733</v>
       </c>
       <c r="D108" s="25" t="s">
@@ -4876,14 +5529,20 @@
       <c r="F108" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="G108" s="49" t="s">
+      <c r="G108" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="M108" s="49" t="s">
+      <c r="M108" s="48" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="129.6">
+      <c r="Q108">
+        <v>13.0631302</v>
+      </c>
+      <c r="R108">
+        <v>77.583125999999993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="129.6">
       <c r="A109" s="25" t="s">
         <v>16</v>
       </c>
@@ -4908,8 +5567,14 @@
       <c r="M109" s="25" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="216">
+      <c r="Q109">
+        <v>13.0456041</v>
+      </c>
+      <c r="R109">
+        <v>77.521651699999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="216">
       <c r="A110" s="25" t="s">
         <v>16</v>
       </c>
@@ -4931,8 +5596,14 @@
       <c r="M110" s="25" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="230.4">
+      <c r="Q110">
+        <v>13.629470700000001</v>
+      </c>
+      <c r="R110">
+        <v>76.918509700000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="230.4">
       <c r="A111" s="25" t="s">
         <v>16</v>
       </c>
@@ -4954,8 +5625,14 @@
       <c r="M111" s="25" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="135.6">
+      <c r="Q111">
+        <v>15.1315527</v>
+      </c>
+      <c r="R111">
+        <v>76.838220399999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="135.6">
       <c r="A112" s="25" t="s">
         <v>16</v>
       </c>
@@ -4965,14 +5642,20 @@
       <c r="C112" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="49" t="s">
         <v>424</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="100.8">
+      <c r="Q112">
+        <v>15.1963592</v>
+      </c>
+      <c r="R112">
+        <v>76.759622100000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="100.8">
       <c r="A113" s="25" t="s">
         <v>16</v>
       </c>
@@ -4991,8 +5674,14 @@
       <c r="G113" s="25" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="86.4">
+      <c r="Q113">
+        <v>15.1452233</v>
+      </c>
+      <c r="R113">
+        <v>76.900198599999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="86.4">
       <c r="A114" s="25" t="s">
         <v>16</v>
       </c>
@@ -5008,8 +5697,14 @@
       <c r="F114" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="43.2">
+      <c r="Q114">
+        <v>15.336240699999999</v>
+      </c>
+      <c r="R114">
+        <v>76.161573500000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="43.2">
       <c r="A115" s="25" t="s">
         <v>16</v>
       </c>
@@ -5022,18 +5717,24 @@
       <c r="F115" s="25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="139.19999999999999">
+      <c r="Q115">
+        <v>15.139393200000001</v>
+      </c>
+      <c r="R115">
+        <v>76.921442799999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="139.19999999999999">
       <c r="A116" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="C116" s="44" t="s">
+      <c r="C116" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="D116" s="44" t="s">
+      <c r="D116" s="43" t="s">
         <v>434</v>
       </c>
       <c r="E116" s="25">
@@ -5045,8 +5746,14 @@
       <c r="G116" s="25" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="86.4">
+      <c r="Q116">
+        <v>15.1406718</v>
+      </c>
+      <c r="R116">
+        <v>76.939974899999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="86.4">
       <c r="A117" s="25" t="s">
         <v>16</v>
       </c>
@@ -5068,8 +5775,14 @@
       <c r="H117" s="25" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="86.4">
+      <c r="Q117">
+        <v>15.156691500000001</v>
+      </c>
+      <c r="R117">
+        <v>76.936099600000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="86.4">
       <c r="A118" s="25" t="s">
         <v>16</v>
       </c>
@@ -5088,200 +5801,350 @@
       <c r="G118" s="25" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="Q118">
+        <v>15.084227500000001</v>
+      </c>
+      <c r="R118">
+        <v>76.885787899999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="25" t="s">
         <v>170</v>
       </c>
       <c r="F119" s="25" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="Q119">
+        <v>16.309232699999999</v>
+      </c>
+      <c r="R119">
+        <v>77.348212699999991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="25" t="s">
         <v>179</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="Q120">
+        <v>10.1631526</v>
+      </c>
+      <c r="R120">
+        <v>76.641271199999991</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="25" t="s">
         <v>179</v>
       </c>
       <c r="F121" s="25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="Q121">
+        <v>22.973422899999999</v>
+      </c>
+      <c r="R121">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="25" t="s">
         <v>179</v>
       </c>
       <c r="F122" s="25" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="Q122">
+        <v>22.973422899999999</v>
+      </c>
+      <c r="R122">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="Q123">
+        <v>22.973422899999999</v>
+      </c>
+      <c r="R123">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="Q124">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R124">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="Q125">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R125">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="Q126">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R126">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="Q127">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R127">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F128" s="25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="Q128">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R128">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="Q129">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R129">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F130" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="Q130">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R130">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="Q131">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R131">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F132" s="25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="Q132">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R132">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F133" s="25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="Q133">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R133">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F134" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="Q134">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R134">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F135" s="25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="Q135">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R135">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="Q136">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R136">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F137" s="25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="Q137">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R137">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F138" s="25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="Q138">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R138">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="25" t="s">
         <v>174</v>
       </c>
       <c r="F139" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="Q139">
+        <v>19.751479799999998</v>
+      </c>
+      <c r="R139">
+        <v>75.713888400000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="25" t="s">
         <v>174</v>
       </c>
       <c r="F140" s="25" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="Q140">
+        <v>23.164542999999998</v>
+      </c>
+      <c r="R140">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="25" t="s">
         <v>174</v>
       </c>
       <c r="F141" s="25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="Q141">
+        <v>23.164542999999998</v>
+      </c>
+      <c r="R141">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="25" t="s">
         <v>174</v>
       </c>
       <c r="F142" s="25" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" ht="83.4">
+      <c r="Q142">
+        <v>23.164542999999998</v>
+      </c>
+      <c r="R142">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="83.4">
       <c r="A143" s="25" t="s">
         <v>708</v>
       </c>
@@ -5300,8 +6163,14 @@
       <c r="F143" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" ht="72">
+      <c r="Q143">
+        <v>23.164542999999998</v>
+      </c>
+      <c r="R143">
+        <v>92.937573900000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="72">
       <c r="A144" s="25" t="s">
         <v>707</v>
       </c>
@@ -5332,8 +6201,14 @@
       <c r="O144" s="25" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="86.4">
+      <c r="Q144">
+        <v>20.840412199999999</v>
+      </c>
+      <c r="R144">
+        <v>85.102898199999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="86.4">
       <c r="A145" s="25" t="s">
         <v>707</v>
       </c>
@@ -5355,8 +6230,14 @@
       <c r="G145" s="25" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="86.4">
+      <c r="Q145">
+        <v>20.8424388</v>
+      </c>
+      <c r="R145">
+        <v>85.437557400000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="86.4">
       <c r="A146" s="25" t="s">
         <v>707</v>
       </c>
@@ -5375,8 +6256,14 @@
       <c r="F146" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="57.6">
+      <c r="Q146">
+        <v>21.912491500000002</v>
+      </c>
+      <c r="R146">
+        <v>85.416921099999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="57.6">
       <c r="A147" s="25" t="s">
         <v>707</v>
       </c>
@@ -5401,8 +6288,14 @@
       <c r="M147" s="25" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="69.599999999999994">
+      <c r="Q147">
+        <v>22.231321999999999</v>
+      </c>
+      <c r="R147">
+        <v>84.747225899999989</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="69.599999999999994">
       <c r="A148" s="25" t="s">
         <v>707</v>
       </c>
@@ -5424,8 +6317,14 @@
       <c r="M148" s="25" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="98.4">
+      <c r="Q148">
+        <v>20.861719399999998</v>
+      </c>
+      <c r="R148">
+        <v>85.059713700000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="98.4">
       <c r="A149" s="25" t="s">
         <v>707</v>
       </c>
@@ -5447,7 +6346,7 @@
       <c r="G149" s="25" t="s">
         <v>627</v>
       </c>
-      <c r="H149" s="49" t="s">
+      <c r="H149" s="48" t="s">
         <v>626</v>
       </c>
       <c r="K149" s="31" t="s">
@@ -5456,8 +6355,14 @@
       <c r="M149" s="25" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="28.2">
+      <c r="Q149">
+        <v>21.784171499999999</v>
+      </c>
+      <c r="R149">
+        <v>85.565069499999993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="28.2">
       <c r="A150" s="25" t="s">
         <v>707</v>
       </c>
@@ -5473,8 +6378,14 @@
       <c r="F150" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="86.4">
+      <c r="Q150">
+        <v>22.280125399999999</v>
+      </c>
+      <c r="R150">
+        <v>84.749467899999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="86.4">
       <c r="A151" s="25" t="s">
         <v>707</v>
       </c>
@@ -5493,8 +6404,14 @@
       <c r="F151" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="69.599999999999994">
+      <c r="Q151">
+        <v>22.190196</v>
+      </c>
+      <c r="R151">
+        <v>84.579862300000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="69.599999999999994">
       <c r="A152" s="25" t="s">
         <v>707</v>
       </c>
@@ -5507,8 +6424,14 @@
       <c r="F152" s="25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="86.4">
+      <c r="Q152">
+        <v>21.639311299999999</v>
+      </c>
+      <c r="R152">
+        <v>85.605525000000014</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="86.4">
       <c r="A153" s="25" t="s">
         <v>707</v>
       </c>
@@ -5527,8 +6450,14 @@
       <c r="F153" s="25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="43.2">
+      <c r="Q153">
+        <v>22.124369999999999</v>
+      </c>
+      <c r="R153">
+        <v>85.411334999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="43.2">
       <c r="A154" s="25" t="s">
         <v>707</v>
       </c>
@@ -5541,8 +6470,14 @@
       <c r="F154" s="25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="86.4">
+      <c r="Q154">
+        <v>22.0837097</v>
+      </c>
+      <c r="R154">
+        <v>85.420083199999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="86.4">
       <c r="A155" s="25" t="s">
         <v>707</v>
       </c>
@@ -5561,8 +6496,14 @@
       <c r="F155" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="72">
+      <c r="Q155">
+        <v>20.9663799</v>
+      </c>
+      <c r="R155">
+        <v>86.0611052</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="72">
       <c r="A156" s="25" t="s">
         <v>707</v>
       </c>
@@ -5587,8 +6528,14 @@
       <c r="M156" s="25" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="43.2">
+      <c r="Q156">
+        <v>20.462520999999999</v>
+      </c>
+      <c r="R156">
+        <v>85.882989499999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="43.2">
       <c r="A157" s="25" t="s">
         <v>707</v>
       </c>
@@ -5607,8 +6554,14 @@
       <c r="F157" s="25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="57.6">
+      <c r="Q157">
+        <v>22.231321999999999</v>
+      </c>
+      <c r="R157">
+        <v>84.747225899999989</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="57.6">
       <c r="A158" s="25" t="s">
         <v>707</v>
       </c>
@@ -5627,8 +6580,14 @@
       <c r="F158" s="25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="79.8">
+      <c r="Q158">
+        <v>22.240711600000001</v>
+      </c>
+      <c r="R158">
+        <v>84.780023299999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="79.8">
       <c r="A159" s="25" t="s">
         <v>707</v>
       </c>
@@ -5656,8 +6615,14 @@
       <c r="M159" s="25" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="55.8">
+      <c r="Q159">
+        <v>22.044924099999999</v>
+      </c>
+      <c r="R159">
+        <v>83.618214100000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="55.8">
       <c r="A160" s="25" t="s">
         <v>707</v>
       </c>
@@ -5676,8 +6641,14 @@
       <c r="F160" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="43.2">
+      <c r="Q160">
+        <v>21.8169343</v>
+      </c>
+      <c r="R160">
+        <v>84.008810299999993</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="43.2">
       <c r="A161" s="25" t="s">
         <v>707</v>
       </c>
@@ -5699,8 +6670,14 @@
       <c r="M161" s="25" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="28.8">
+      <c r="Q161">
+        <v>22.018940199999999</v>
+      </c>
+      <c r="R161">
+        <v>85.421855699999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="28.8">
       <c r="A162" s="25" t="s">
         <v>707</v>
       </c>
@@ -5719,15 +6696,21 @@
       <c r="M162" s="25" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="Q162">
+        <v>21.799973399999999</v>
+      </c>
+      <c r="R162">
+        <v>85.566517399999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="25" t="s">
         <v>707</v>
       </c>
       <c r="B163" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="C163" s="47" t="s">
+      <c r="C163" s="46" t="s">
         <v>522</v>
       </c>
       <c r="E163" s="25">
@@ -5739,8 +6722,14 @@
       <c r="G163" s="25" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="28.8">
+      <c r="Q163">
+        <v>22.111209599999999</v>
+      </c>
+      <c r="R163">
+        <v>85.385853799999992</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="28.8">
       <c r="A164" s="25" t="s">
         <v>708</v>
       </c>
@@ -5756,14 +6745,20 @@
       <c r="G164" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="H164" s="57" t="s">
+      <c r="H164" s="56" t="s">
         <v>598</v>
       </c>
       <c r="M164" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="57.6">
+      <c r="Q164">
+        <v>22.094227499999999</v>
+      </c>
+      <c r="R164">
+        <v>85.37057999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="57.6">
       <c r="A165" s="25" t="s">
         <v>707</v>
       </c>
@@ -5779,14 +6774,20 @@
       <c r="G165" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="H165" s="58" t="s">
+      <c r="H165" s="57" t="s">
         <v>696</v>
       </c>
       <c r="M165" s="25" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="72">
+      <c r="Q165">
+        <v>22.1077066</v>
+      </c>
+      <c r="R165">
+        <v>84.390740700000009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="72">
       <c r="A166" s="25" t="s">
         <v>707</v>
       </c>
@@ -5805,11 +6806,17 @@
       <c r="H166" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="M166" s="57" t="s">
+      <c r="M166" s="56" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="43.2">
+      <c r="Q166">
+        <v>20.7598877</v>
+      </c>
+      <c r="R166">
+        <v>85.352381999999992</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="43.2">
       <c r="A167" s="25" t="s">
         <v>707</v>
       </c>
@@ -5828,8 +6835,14 @@
       <c r="M167" s="25" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="93.6">
+      <c r="Q167">
+        <v>22.282077099999999</v>
+      </c>
+      <c r="R167">
+        <v>84.757505499999994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="93.6">
       <c r="A168" s="25" t="s">
         <v>707</v>
       </c>
@@ -5851,8 +6864,14 @@
       <c r="M168" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="57.6">
+      <c r="Q168">
+        <v>21.631883299999998</v>
+      </c>
+      <c r="R168">
+        <v>85.890833700000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="57.6">
       <c r="A169" s="25" t="s">
         <v>707</v>
       </c>
@@ -5874,8 +6893,14 @@
       <c r="M169" s="25" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="43.2">
+      <c r="Q169">
+        <v>22.094227499999999</v>
+      </c>
+      <c r="R169">
+        <v>85.37057999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="43.2">
       <c r="A170" s="25" t="s">
         <v>707</v>
       </c>
@@ -5897,8 +6922,14 @@
       <c r="M170" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="72">
+      <c r="Q170">
+        <v>22.231321999999999</v>
+      </c>
+      <c r="R170">
+        <v>84.747225899999989</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="72">
       <c r="A171" s="25" t="s">
         <v>707</v>
       </c>
@@ -5920,8 +6951,14 @@
       <c r="M171" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="28.8">
+      <c r="Q171">
+        <v>22.228057</v>
+      </c>
+      <c r="R171">
+        <v>84.7033773</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="28.8">
       <c r="A172" s="25" t="s">
         <v>707</v>
       </c>
@@ -5943,8 +6980,14 @@
       <c r="M172" s="25" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="43.2">
+      <c r="Q172">
+        <v>21.841369199999999</v>
+      </c>
+      <c r="R172">
+        <v>84.940781700000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="43.2">
       <c r="A173" s="25" t="s">
         <v>707</v>
       </c>
@@ -5966,8 +7009,14 @@
       <c r="M173" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="43.2">
+      <c r="Q173">
+        <v>22.282592999999999</v>
+      </c>
+      <c r="R173">
+        <v>84.770722300000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="43.2">
       <c r="A174" s="25" t="s">
         <v>707</v>
       </c>
@@ -5989,8 +7038,14 @@
       <c r="M174" s="25" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="14.25" customHeight="1">
+      <c r="Q174">
+        <v>22.012256900000001</v>
+      </c>
+      <c r="R174">
+        <v>84.040576099999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" ht="14.25" customHeight="1">
       <c r="A175" s="25" t="s">
         <v>708</v>
       </c>
@@ -6012,8 +7067,14 @@
       <c r="M175" s="25" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" ht="72">
+      <c r="Q175">
+        <v>22.246904700000002</v>
+      </c>
+      <c r="R175">
+        <v>84.587718299999992</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" ht="72">
       <c r="A176" s="25" t="s">
         <v>707</v>
       </c>
@@ -6035,8 +7096,14 @@
       <c r="M176" s="25" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" ht="72">
+      <c r="Q176">
+        <v>22.120021000000001</v>
+      </c>
+      <c r="R176">
+        <v>84.037223999999995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="72">
       <c r="A177" s="25" t="s">
         <v>707</v>
       </c>
@@ -6058,8 +7125,14 @@
       <c r="M177" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="57.6">
+      <c r="Q177">
+        <v>22.012256900000001</v>
+      </c>
+      <c r="R177">
+        <v>84.040576099999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="57.6">
       <c r="A178" s="25" t="s">
         <v>707</v>
       </c>
@@ -6078,8 +7151,14 @@
       <c r="M178" s="25" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="57.6">
+      <c r="Q178">
+        <v>21.819401200000001</v>
+      </c>
+      <c r="R178">
+        <v>84.915071900000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="57.6">
       <c r="A179" s="25" t="s">
         <v>707</v>
       </c>
@@ -6101,8 +7180,14 @@
       <c r="M179" s="25" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="158.4">
+      <c r="Q179">
+        <v>22.210437299999999</v>
+      </c>
+      <c r="R179">
+        <v>84.744614599999991</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="158.4">
       <c r="A180" s="25" t="s">
         <v>707</v>
       </c>
@@ -6121,11 +7206,17 @@
       <c r="H180" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="M180" s="57" t="s">
+      <c r="M180" s="56" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="72">
+      <c r="Q180">
+        <v>22.280125399999999</v>
+      </c>
+      <c r="R180">
+        <v>84.749467899999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" ht="72">
       <c r="A181" s="25" t="s">
         <v>707</v>
       </c>
@@ -6147,8 +7238,14 @@
       <c r="M181" s="25" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="72">
+      <c r="Q181">
+        <v>21.883628300000002</v>
+      </c>
+      <c r="R181">
+        <v>84.937528700000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="72">
       <c r="A182" s="25" t="s">
         <v>707</v>
       </c>
@@ -6170,8 +7267,14 @@
       <c r="M182" s="25" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="72">
+      <c r="Q182">
+        <v>22.3293894</v>
+      </c>
+      <c r="R182">
+        <v>84.566766500000014</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="72">
       <c r="A183" s="25" t="s">
         <v>707</v>
       </c>
@@ -6193,8 +7296,14 @@
       <c r="M183" s="25" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" ht="28.8">
+      <c r="Q183">
+        <v>21.113992700000001</v>
+      </c>
+      <c r="R183">
+        <v>86.008330399999991</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="28.8">
       <c r="A184" s="25" t="s">
         <v>707</v>
       </c>
@@ -6216,8 +7325,14 @@
       <c r="M184" s="42" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="86.4">
+      <c r="Q184">
+        <v>21.855437500000001</v>
+      </c>
+      <c r="R184">
+        <v>84.006166100000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="86.4">
       <c r="A185" s="25" t="s">
         <v>707</v>
       </c>
@@ -6236,8 +7351,14 @@
       <c r="M185" s="25" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="62.4">
+      <c r="Q185">
+        <v>21.776509699999998</v>
+      </c>
+      <c r="R185">
+        <v>84.040532200000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" ht="62.4">
       <c r="A186" s="25" t="s">
         <v>707</v>
       </c>
@@ -6259,8 +7380,14 @@
       <c r="M186" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="72">
+      <c r="Q186">
+        <v>22.270932200000001</v>
+      </c>
+      <c r="R186">
+        <v>86.170089399999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" ht="72">
       <c r="A187" s="25" t="s">
         <v>707</v>
       </c>
@@ -6282,8 +7409,14 @@
       <c r="M187" s="25" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="43.2">
+      <c r="Q187">
+        <v>22.260422999999999</v>
+      </c>
+      <c r="R187">
+        <v>84.853584400000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" ht="43.2">
       <c r="A188" s="25" t="s">
         <v>707</v>
       </c>
@@ -6302,11 +7435,17 @@
       <c r="H188" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="M188" s="57" t="s">
+      <c r="M188" s="56" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="43.2">
+      <c r="Q188">
+        <v>21.797345</v>
+      </c>
+      <c r="R188">
+        <v>84.934926099999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" ht="43.2">
       <c r="A189" s="25" t="s">
         <v>707</v>
       </c>
@@ -6328,8 +7467,14 @@
       <c r="M189" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="100.8">
+      <c r="Q189">
+        <v>22.280125399999999</v>
+      </c>
+      <c r="R189">
+        <v>84.749467899999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="100.8">
       <c r="A190" s="25" t="s">
         <v>707</v>
       </c>
@@ -6351,8 +7496,14 @@
       <c r="M190" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="72">
+      <c r="Q190">
+        <v>22.190196</v>
+      </c>
+      <c r="R190">
+        <v>84.579862300000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="72">
       <c r="A191" s="25" t="s">
         <v>707</v>
       </c>
@@ -6374,8 +7525,14 @@
       <c r="M191" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" ht="57.6">
+      <c r="Q191">
+        <v>22.280125399999999</v>
+      </c>
+      <c r="R191">
+        <v>84.749467899999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="57.6">
       <c r="A192" s="25" t="s">
         <v>707</v>
       </c>
@@ -6397,8 +7554,14 @@
       <c r="M192" s="25" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="46.8">
+      <c r="Q192">
+        <v>21.8091984</v>
+      </c>
+      <c r="R192">
+        <v>84.921586099999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="46.8">
       <c r="A193" s="25" t="s">
         <v>707</v>
       </c>
@@ -6420,8 +7583,14 @@
       <c r="M193" s="25" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" ht="28.8">
+      <c r="Q193">
+        <v>22.231321999999999</v>
+      </c>
+      <c r="R193">
+        <v>84.747225899999989</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="28.8">
       <c r="A194" s="25" t="s">
         <v>707</v>
       </c>
@@ -6443,8 +7612,14 @@
       <c r="M194" s="25" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="43.2">
+      <c r="Q194">
+        <v>22.084687500000001</v>
+      </c>
+      <c r="R194">
+        <v>84.855490000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="43.2">
       <c r="A195" s="25" t="s">
         <v>707</v>
       </c>
@@ -6466,8 +7641,14 @@
       <c r="M195" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" ht="43.2">
+      <c r="Q195">
+        <v>21.444316400000002</v>
+      </c>
+      <c r="R195">
+        <v>84.067480000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" ht="43.2">
       <c r="A196" s="25" t="s">
         <v>707</v>
       </c>
@@ -6489,8 +7670,14 @@
       <c r="M196" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="57.6">
+      <c r="Q196">
+        <v>21.547228700000002</v>
+      </c>
+      <c r="R196">
+        <v>84.039222499999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" ht="57.6">
       <c r="A197" s="25" t="s">
         <v>707</v>
       </c>
@@ -6512,8 +7699,14 @@
       <c r="M197" s="25" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" ht="78">
+      <c r="Q197">
+        <v>21.7426888</v>
+      </c>
+      <c r="R197">
+        <v>84.8701054</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="78">
       <c r="A198" s="25" t="s">
         <v>707</v>
       </c>
@@ -6535,8 +7728,14 @@
       <c r="M198" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="43.2">
+      <c r="Q198">
+        <v>20.325082600000002</v>
+      </c>
+      <c r="R198">
+        <v>85.843142399999991</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="43.2">
       <c r="A199" s="25" t="s">
         <v>707</v>
       </c>
@@ -6558,8 +7757,14 @@
       <c r="M199" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="43.2">
+      <c r="Q199">
+        <v>22.2265519</v>
+      </c>
+      <c r="R199">
+        <v>84.850680299999993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" ht="43.2">
       <c r="A200" s="25" t="s">
         <v>707</v>
       </c>
@@ -6581,8 +7786,14 @@
       <c r="M200" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="72">
+      <c r="Q200">
+        <v>21.645087499999999</v>
+      </c>
+      <c r="R200">
+        <v>84.084203099999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="72">
       <c r="A201" s="25" t="s">
         <v>707</v>
       </c>
@@ -6595,7 +7806,7 @@
       <c r="F201" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="G201" s="56" t="s">
+      <c r="G201" s="55" t="s">
         <v>577</v>
       </c>
       <c r="H201" s="25" t="s">
@@ -6604,8 +7815,14 @@
       <c r="M201" s="25" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="115.2">
+      <c r="Q201">
+        <v>20.295301299999998</v>
+      </c>
+      <c r="R201">
+        <v>85.842791599999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="115.2">
       <c r="A202" s="25" t="s">
         <v>707</v>
       </c>
@@ -6627,8 +7844,14 @@
       <c r="M202" s="25" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="72">
+      <c r="Q202">
+        <v>22.230692699999999</v>
+      </c>
+      <c r="R202">
+        <v>84.750908699999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" ht="72">
       <c r="A203" s="25" t="s">
         <v>707</v>
       </c>
@@ -6650,8 +7873,14 @@
       <c r="M203" s="25" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="31.2">
+      <c r="Q203">
+        <v>22.232687599999998</v>
+      </c>
+      <c r="R203">
+        <v>84.697590599999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" ht="31.2">
       <c r="A204" s="25" t="s">
         <v>707</v>
       </c>
@@ -6673,8 +7902,14 @@
       <c r="M204" s="42" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" ht="86.4">
+      <c r="Q204">
+        <v>22.335742799999998</v>
+      </c>
+      <c r="R204">
+        <v>84.760280699999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="86.4">
       <c r="A205" s="25" t="s">
         <v>707</v>
       </c>
@@ -6696,8 +7931,14 @@
       <c r="M205" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" ht="102">
+      <c r="Q205">
+        <v>22.219562499999999</v>
+      </c>
+      <c r="R205">
+        <v>84.756046900000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="102">
       <c r="A206" s="25" t="s">
         <v>707</v>
       </c>
@@ -6707,7 +7948,7 @@
       <c r="C206" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="F206" s="55" t="s">
+      <c r="F206" s="54" t="s">
         <v>550</v>
       </c>
       <c r="G206" s="25" t="s">
@@ -6719,8 +7960,14 @@
       <c r="M206" s="25" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" ht="72">
+      <c r="Q206">
+        <v>20.293333000000001</v>
+      </c>
+      <c r="R206">
+        <v>85.847791999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="72">
       <c r="A207" s="25" t="s">
         <v>707</v>
       </c>
@@ -6742,8 +7989,14 @@
       <c r="M207" s="25" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="43.2">
+      <c r="Q207">
+        <v>22.220937500000002</v>
+      </c>
+      <c r="R207">
+        <v>84.760609399999993</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="43.2">
       <c r="A208" s="25" t="s">
         <v>707</v>
       </c>
@@ -6765,8 +8018,14 @@
       <c r="M208" s="25" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="72">
+      <c r="Q208">
+        <v>22.270932200000001</v>
+      </c>
+      <c r="R208">
+        <v>86.170089399999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="72">
       <c r="A209" s="25" t="s">
         <v>707</v>
       </c>
@@ -6788,8 +8047,14 @@
       <c r="M209" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="43.2">
+      <c r="Q209">
+        <v>22.199552300000001</v>
+      </c>
+      <c r="R209">
+        <v>84.740529300000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="43.2">
       <c r="A210" s="25" t="s">
         <v>707</v>
       </c>
@@ -6811,355 +8076,590 @@
       <c r="M210" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="Q210">
+        <v>22.217212799999999</v>
+      </c>
+      <c r="R210">
+        <v>84.731765299999992</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F211" s="25" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="Q211">
+        <v>20.519940800000001</v>
+      </c>
+      <c r="R211">
+        <v>85.733332199999992</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F212" s="25" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="Q212">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R212">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F213" s="25" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="Q213">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R213">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F214" s="25" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="Q214">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R214">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F215" s="25" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="Q215">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R215">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F216" s="25" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="Q216">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R216">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F217" s="25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="Q217">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R217">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F218" s="25" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="Q218">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R218">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F219" s="25" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="Q219">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R219">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F220" s="25" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="Q220">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R220">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F221" s="25" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="Q221">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R221">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" s="25" t="s">
         <v>193</v>
       </c>
       <c r="F222" s="25" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="Q222">
+        <v>31.147130499999999</v>
+      </c>
+      <c r="R222">
+        <v>75.34121789999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F223" s="25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="Q223">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R223">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F224" s="25" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="Q224">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R224">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F225" s="25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="Q225">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R225">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F226" s="25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="Q226">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R226">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F227" s="25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="Q227">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R227">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F228" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="Q228">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R228">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F229" s="25" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="Q229">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R229">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C230" s="43"/>
+      <c r="C230" s="32"/>
       <c r="F230" s="25" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="Q230">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R230">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D231" s="43"/>
+      <c r="D231" s="32"/>
       <c r="F231" s="25" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="Q231">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R231">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" s="25" t="s">
         <v>206</v>
       </c>
       <c r="F232" s="25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="Q232">
+        <v>27.023803600000001</v>
+      </c>
+      <c r="R232">
+        <v>74.217932600000012</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C233" s="45" t="s">
+      <c r="C233" s="44" t="s">
         <v>438</v>
       </c>
       <c r="F233" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="Q233">
+        <v>11.1271225</v>
+      </c>
+      <c r="R233">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F234" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="Q234">
+        <v>11.1271225</v>
+      </c>
+      <c r="R234">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F235" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="Q235">
+        <v>11.1271225</v>
+      </c>
+      <c r="R235">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F236" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="Q236">
+        <v>11.1271225</v>
+      </c>
+      <c r="R236">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F237" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="Q237">
+        <v>11.1271225</v>
+      </c>
+      <c r="R237">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F238" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="Q238">
+        <v>11.1271225</v>
+      </c>
+      <c r="R238">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C239" s="43"/>
+      <c r="C239" s="32"/>
       <c r="F239" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="Q239">
+        <v>11.1271225</v>
+      </c>
+      <c r="R239">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="D240" s="43"/>
+      <c r="D240" s="32"/>
       <c r="F240" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="Q240">
+        <v>11.1271225</v>
+      </c>
+      <c r="R240">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="F241" s="43" t="s">
+      <c r="F241" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="Q241">
+        <v>11.1271225</v>
+      </c>
+      <c r="R241">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F242" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="Q242">
+        <v>11.1271225</v>
+      </c>
+      <c r="R242">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C243" s="43"/>
+      <c r="C243" s="32"/>
       <c r="F243" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="Q243">
+        <v>11.1271225</v>
+      </c>
+      <c r="R243">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F244" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="Q244">
+        <v>11.1271225</v>
+      </c>
+      <c r="R244">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F245" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="246" spans="1:16">
+      <c r="Q245">
+        <v>11.1271225</v>
+      </c>
+      <c r="R245">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C246" s="43"/>
+      <c r="C246" s="32"/>
       <c r="F246" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" s="32" customFormat="1">
+      <c r="Q246">
+        <v>11.1271225</v>
+      </c>
+      <c r="R246">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" s="32" customFormat="1">
       <c r="A247" s="41" t="s">
         <v>709</v>
       </c>
       <c r="B247" s="41"/>
-      <c r="C247" s="43"/>
-      <c r="D247" s="43"/>
-      <c r="E247" s="43"/>
       <c r="F247" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G247" s="41"/>
-      <c r="H247" s="43"/>
-      <c r="I247" s="43"/>
-      <c r="J247" s="43"/>
-      <c r="K247" s="43"/>
-      <c r="L247" s="43"/>
       <c r="M247" s="41"/>
-      <c r="N247" s="43"/>
-      <c r="O247" s="43"/>
-      <c r="P247" s="43"/>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="Q247">
+        <v>11.1271225</v>
+      </c>
+      <c r="R247">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" s="25" t="s">
         <v>709</v>
       </c>
       <c r="F248" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" ht="15" thickBot="1">
+      <c r="Q248">
+        <v>11.1271225</v>
+      </c>
+      <c r="R248">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" ht="15" thickBot="1">
       <c r="A249" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C249" s="43"/>
+      <c r="C249" s="32"/>
       <c r="F249" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G249" s="43"/>
-      <c r="M249" s="43"/>
-    </row>
-    <row r="250" spans="1:16" ht="15" thickBot="1">
+      <c r="G249" s="32"/>
+      <c r="M249" s="32"/>
+      <c r="Q249">
+        <v>11.1271225</v>
+      </c>
+      <c r="R249">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" ht="15" thickBot="1">
       <c r="A250" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C250" s="48"/>
+      <c r="C250" s="47"/>
       <c r="F250" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" ht="115.2">
+      <c r="Q250">
+        <v>11.1271225</v>
+      </c>
+      <c r="R250">
+        <v>78.656894199999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" ht="115.2">
       <c r="A251" s="25" t="s">
         <v>181</v>
       </c>
@@ -7172,9 +8672,15 @@
       <c r="F251" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="M251" s="43"/>
-    </row>
-    <row r="252" spans="1:16" ht="120.6">
+      <c r="M251" s="32"/>
+      <c r="Q251">
+        <v>17.434013100000001</v>
+      </c>
+      <c r="R251">
+        <v>78.445460099999991</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" ht="120.6">
       <c r="A252" s="25" t="s">
         <v>181</v>
       </c>
@@ -7190,150 +8696,258 @@
       <c r="F252" s="25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="Q252">
+        <v>17.0944155</v>
+      </c>
+      <c r="R252">
+        <v>79.775032199999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C253" s="43"/>
+      <c r="C253" s="32"/>
       <c r="F253" s="25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="Q253">
+        <v>17.0944155</v>
+      </c>
+      <c r="R253">
+        <v>79.775032199999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="25" t="s">
         <v>181</v>
       </c>
       <c r="F254" s="25" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="Q254">
+        <v>17.0944155</v>
+      </c>
+      <c r="R254">
+        <v>79.775032199999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" s="25" t="s">
         <v>181</v>
       </c>
       <c r="F255" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="M255" s="43"/>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="M255" s="32"/>
+      <c r="Q255">
+        <v>17.0944155</v>
+      </c>
+      <c r="R255">
+        <v>79.775032199999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" s="25" t="s">
         <v>181</v>
       </c>
       <c r="F256" s="25" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="Q256">
+        <v>17.0944155</v>
+      </c>
+      <c r="R256">
+        <v>79.775032199999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" s="25" t="s">
         <v>181</v>
       </c>
       <c r="F257" s="25" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="Q257">
+        <v>23.563864299999999</v>
+      </c>
+      <c r="R257">
+        <v>91.676069099999992</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" s="25" t="s">
         <v>222</v>
       </c>
       <c r="F258" s="25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="Q258">
+        <v>23.563864299999999</v>
+      </c>
+      <c r="R258">
+        <v>91.676069099999992</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" s="25" t="s">
         <v>222</v>
       </c>
       <c r="F259" s="25" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="Q259">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R259">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C260" s="43"/>
+      <c r="C260" s="32"/>
       <c r="F260" s="25" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="Q260">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R260">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F261" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G261" s="43"/>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="G261" s="32"/>
+      <c r="Q261">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R261">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F262" s="25" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="Q262">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R262">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F263" s="25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="Q263">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R263">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F264" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="Q264">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R264">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C265" s="43"/>
+      <c r="C265" s="32"/>
       <c r="F265" s="25" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="Q265">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R265">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F266" s="25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="Q266">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R266">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F267" s="25" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="Q267">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R267">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F268" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="G268" s="43"/>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="G268" s="32"/>
+      <c r="Q268">
+        <v>27.570588600000001</v>
+      </c>
+      <c r="R268">
+        <v>80.098186900000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269" s="25" t="s">
         <v>225</v>
       </c>
       <c r="F269" s="25" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" ht="55.8">
+      <c r="Q269">
+        <v>22.574354499999998</v>
+      </c>
+      <c r="R269">
+        <v>88.362873399999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" ht="55.8">
       <c r="A270" s="25" t="s">
         <v>64</v>
       </c>
@@ -7352,8 +8966,14 @@
       <c r="F270" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" ht="43.2">
+      <c r="Q270">
+        <v>22.345172300000002</v>
+      </c>
+      <c r="R270">
+        <v>87.304705299999995</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" ht="43.2">
       <c r="A271" s="25" t="s">
         <v>64</v>
       </c>
@@ -7366,9 +8986,15 @@
       <c r="F271" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="M271" s="43"/>
-    </row>
-    <row r="272" spans="1:13" ht="55.8">
+      <c r="M271" s="32"/>
+      <c r="Q271">
+        <v>22.365312500000002</v>
+      </c>
+      <c r="R271">
+        <v>87.018484399999991</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" ht="55.8">
       <c r="A272" s="25" t="s">
         <v>64</v>
       </c>
@@ -7381,8 +9007,14 @@
       <c r="F272" s="25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" ht="111">
+      <c r="Q272">
+        <v>22.574354499999998</v>
+      </c>
+      <c r="R272">
+        <v>88.362873399999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" ht="111">
       <c r="A273" s="25" t="s">
         <v>64</v>
       </c>
@@ -7398,11 +9030,17 @@
       <c r="E273" s="25">
         <v>28</v>
       </c>
-      <c r="F273" s="43" t="s">
+      <c r="F273" s="32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" ht="97.2">
+      <c r="Q273">
+        <v>22.347112500000001</v>
+      </c>
+      <c r="R273">
+        <v>87.061921900000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" ht="97.2">
       <c r="A274" s="25" t="s">
         <v>64</v>
       </c>
@@ -7421,9 +9059,15 @@
       <c r="F274" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H274" s="43"/>
-    </row>
-    <row r="275" spans="1:13" ht="69.599999999999994">
+      <c r="H274" s="32"/>
+      <c r="Q274">
+        <v>23.704696800000001</v>
+      </c>
+      <c r="R274">
+        <v>87.073353699999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" ht="69.599999999999994">
       <c r="A275" s="25" t="s">
         <v>64</v>
       </c>
@@ -7442,8 +9086,14 @@
       <c r="F275" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" ht="111">
+      <c r="Q275">
+        <v>23.077437499999998</v>
+      </c>
+      <c r="R275">
+        <v>86.211937499999991</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" ht="111">
       <c r="A276" s="25" t="s">
         <v>64</v>
       </c>
@@ -7462,8 +9112,14 @@
       <c r="F276" s="25" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" ht="69.599999999999994">
+      <c r="Q276">
+        <v>23.615387500000001</v>
+      </c>
+      <c r="R276">
+        <v>86.860796899999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" ht="69.599999999999994">
       <c r="A277" s="25" t="s">
         <v>64</v>
       </c>
@@ -7482,8 +9138,14 @@
       <c r="F277" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" ht="43.2">
+      <c r="Q277">
+        <v>22.554356299999998</v>
+      </c>
+      <c r="R277">
+        <v>88.364019399999989</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" ht="43.2">
       <c r="A278" s="25" t="s">
         <v>64</v>
       </c>
@@ -7502,8 +9164,14 @@
       <c r="M278" s="25" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" ht="55.8">
+      <c r="Q278">
+        <v>23.545887499999999</v>
+      </c>
+      <c r="R278">
+        <v>86.547328100000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" ht="55.8">
       <c r="A279" s="25" t="s">
         <v>64</v>
       </c>
@@ -7522,8 +9190,14 @@
       <c r="F279" s="25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" ht="43.2">
+      <c r="Q279">
+        <v>23.514740799999998</v>
+      </c>
+      <c r="R279">
+        <v>87.268046599999991</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" ht="43.2">
       <c r="A280" s="25" t="s">
         <v>64</v>
       </c>
@@ -7542,8 +9216,14 @@
       <c r="F280" s="25" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" ht="69.599999999999994">
+      <c r="Q280">
+        <v>22.574093300000001</v>
+      </c>
+      <c r="R280">
+        <v>88.350418300000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" ht="69.599999999999994">
       <c r="A281" s="25" t="s">
         <v>64</v>
       </c>
@@ -7556,8 +9236,14 @@
       <c r="F281" s="25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" ht="55.8">
+      <c r="Q281">
+        <v>23.032262500000002</v>
+      </c>
+      <c r="R281">
+        <v>86.158984399999994</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" ht="55.8">
       <c r="A282" s="25" t="s">
         <v>64</v>
       </c>
@@ -7576,8 +9262,14 @@
       <c r="F282" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" ht="83.4">
+      <c r="Q282">
+        <v>23.497626700000001</v>
+      </c>
+      <c r="R282">
+        <v>87.395956400000003</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" ht="83.4">
       <c r="A283" s="25" t="s">
         <v>64</v>
       </c>
@@ -7593,11 +9285,17 @@
       <c r="E283" s="25">
         <v>20</v>
       </c>
-      <c r="F283" s="43" t="s">
+      <c r="F283" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" ht="69.599999999999994">
+      <c r="Q283">
+        <v>23.706068800000001</v>
+      </c>
+      <c r="R283">
+        <v>87.077410700000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" ht="69.599999999999994">
       <c r="A284" s="25" t="s">
         <v>64</v>
       </c>
@@ -7616,8 +9314,14 @@
       <c r="F284" s="25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" ht="55.8">
+      <c r="Q284">
+        <v>23.094391300000002</v>
+      </c>
+      <c r="R284">
+        <v>86.220296199999993</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" ht="55.8">
       <c r="A285" s="25" t="s">
         <v>64</v>
       </c>
@@ -7630,8 +9334,14 @@
       <c r="F285" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" ht="69.599999999999994">
+      <c r="Q285">
+        <v>22.569680699999999</v>
+      </c>
+      <c r="R285">
+        <v>88.351960899999995</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" ht="69.599999999999994">
       <c r="A286" s="25" t="s">
         <v>64</v>
       </c>
@@ -7644,8 +9354,14 @@
       <c r="F286" s="25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" ht="42">
+      <c r="Q286">
+        <v>23.428243500000001</v>
+      </c>
+      <c r="R286">
+        <v>87.279418899999996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" ht="42">
       <c r="A287" s="25" t="s">
         <v>64</v>
       </c>
@@ -7658,8 +9374,14 @@
       <c r="F287" s="25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" ht="42">
+      <c r="Q287">
+        <v>22.574093300000001</v>
+      </c>
+      <c r="R287">
+        <v>88.350418300000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" ht="42">
       <c r="A288" s="25" t="s">
         <v>64</v>
       </c>
@@ -7672,8 +9394,14 @@
       <c r="F288" s="25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" ht="55.8">
+      <c r="Q288">
+        <v>22.365312500000002</v>
+      </c>
+      <c r="R288">
+        <v>87.018484399999991</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" ht="55.8">
       <c r="A289" s="25" t="s">
         <v>64</v>
       </c>
@@ -7692,8 +9420,14 @@
       <c r="F289" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" ht="97.2">
+      <c r="Q289">
+        <v>23.278442800000001</v>
+      </c>
+      <c r="R289">
+        <v>87.028693599999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" ht="97.2">
       <c r="A290" s="25" t="s">
         <v>64</v>
       </c>
@@ -7712,8 +9446,14 @@
       <c r="F290" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" ht="124.8">
+      <c r="Q290">
+        <v>23.425856799999998</v>
+      </c>
+      <c r="R290">
+        <v>87.285456499999995</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" ht="124.8">
       <c r="A291" s="25" t="s">
         <v>338</v>
       </c>
@@ -7726,11 +9466,17 @@
       <c r="D291" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F291" s="43" t="s">
+      <c r="F291" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" ht="69.599999999999994">
+      <c r="Q291">
+        <v>22.3204125</v>
+      </c>
+      <c r="R291">
+        <v>87.003671900000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" ht="69.599999999999994">
       <c r="A292" s="25" t="s">
         <v>338</v>
       </c>
@@ -7743,8 +9489,14 @@
       <c r="F292" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" ht="43.2">
+      <c r="Q292">
+        <v>22.569680699999999</v>
+      </c>
+      <c r="R292">
+        <v>88.351960899999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="43.2">
       <c r="A293" s="25" t="s">
         <v>338</v>
       </c>
@@ -7757,42 +9509,48 @@
       <c r="F293" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G293" s="43"/>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="G293" s="32"/>
+      <c r="Q293">
+        <v>22.553343699999999</v>
+      </c>
+      <c r="R293">
+        <v>88.349967599999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
       <c r="F294" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="M294" s="43"/>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="M294" s="32"/>
+    </row>
+    <row r="295" spans="1:18">
       <c r="F295" s="25" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:18">
       <c r="F296" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="H296" s="43"/>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="H296" s="32"/>
+    </row>
+    <row r="297" spans="1:18">
       <c r="F297" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="H297" s="43"/>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="H297" s="32"/>
+    </row>
+    <row r="298" spans="1:18">
       <c r="F298" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H298" s="43"/>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="H298" s="32"/>
+    </row>
+    <row r="299" spans="1:18">
       <c r="F299" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="M299" s="43"/>
+      <c r="M299" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P299" xr:uid="{00000000-0009-0000-0000-000000000000}">
